--- a/spotcheck/spotcheck_df_curated_v1_rel.xlsx
+++ b/spotcheck/spotcheck_df_curated_v1_rel.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,27 +508,27 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1.026315789473684</v>
+        <v>1.027777777777778</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>What is the ISO alpha-2 code for Ghana?</t>
+          <t>What is the ISO alpha-2 code for Nigeria?</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>GH</t>
+          <t>NG</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>GH</t>
+          <t>NG</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -550,17 +550,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>What is the calling code for Nigeria?</t>
+          <t>What is the calling code for Armenia?</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>+234</t>
+          <t>+374</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>+234</t>
+          <t>+374</t>
         </is>
       </c>
     </row>
@@ -572,27 +572,27 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>2.315789473684211</v>
+        <v>2.277777777777778</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>What is the capital of Germany?</t>
+          <t>What is the capital of Turkey?</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Ankara</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Ankara</t>
         </is>
       </c>
     </row>
@@ -604,27 +604,27 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9842105263157894</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>3.315789473684211</v>
+        <v>3.611111111111111</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>What is the currency of Kenya?</t>
+          <t>What is the currency of Vietnam?</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Kenyan shilling</t>
+          <t>Vietnamese dong</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Kenyan shilling</t>
+          <t>Dong</t>
         </is>
       </c>
     </row>
@@ -636,27 +636,27 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1.210526315789474</v>
+        <v>1.138888888888889</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>What is the top-level internet domain for United States?</t>
+          <t>What is the top-level internet domain for Spain?</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>.us</t>
+          <t>.es</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>.us</t>
+          <t>.es</t>
         </is>
       </c>
     </row>
@@ -668,27 +668,27 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9916666666666667</v>
       </c>
       <c r="E7" t="n">
-        <v>2.131578947368421</v>
+        <v>2.25</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>What language in Azerbaijan has the most speakers?</t>
+          <t>What language in Kenya has the most speakers?</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Azerbaijani</t>
+          <t>Swahili</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Azerbaijani</t>
+          <t>Swahili</t>
         </is>
       </c>
     </row>
@@ -700,27 +700,27 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9921052631578948</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>2.815789473684211</v>
+        <v>2.694444444444445</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Which ethnic group is the largest in Iceland?</t>
+          <t>Which ethnic group is the largest in Thailand?</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Icelandic</t>
+          <t>Thai</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Icelandic</t>
+          <t>Thai</t>
         </is>
       </c>
     </row>
@@ -732,27 +732,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>2.447368421052631</v>
+        <v>2.388888888888889</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Which religion has the most followers in Russia?</t>
+          <t>Which religion has the most followers in Norway?</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Russian Orthodox Christianity</t>
+          <t>Christianity</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Orthodox Christianity</t>
+          <t>Christianity</t>
         </is>
       </c>
     </row>
@@ -778,17 +778,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>In which country was The Handmaid's Tale first released or published?</t>
+          <t>In which country was Amélie first released or published?</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>France</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>France</t>
         </is>
       </c>
     </row>
@@ -796,31 +796,31 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>What is the genre or of {creative_work}?</t>
+          <t>What is the genre or style of {creative_work}?</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7523809523809524</v>
+        <v>0.7904761904761903</v>
       </c>
       <c r="E11" t="n">
-        <v>4.571428571428571</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>What is the genre or of Schindler's List?</t>
+          <t>What is the genre or style of The Brothers Karamazov?</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Historical drama</t>
+          <t>Philosophical, psychological fiction</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Drama</t>
+          <t>Psychological drama</t>
         </is>
       </c>
     </row>
@@ -838,11 +838,11 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1.095238095238095</v>
+        <v>1.047619047619048</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>What is the original language of The Handmaid's Tale?</t>
+          <t>What is the original language of The Grapes of Wrath?</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -867,24 +867,24 @@
         <v>21</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9619047619047618</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="E13" t="n">
-        <v>2.619047619047619</v>
+        <v>2.476190476190476</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>When was War and Peace released or published?</t>
+          <t>When was A Separation released or published?</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1869</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1869</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
@@ -899,24 +899,24 @@
         <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9238095238095237</v>
+        <v>0.9571428571428571</v>
       </c>
       <c r="E14" t="n">
-        <v>2.047619047619047</v>
+        <v>1.952380952380952</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Where was A Tale of Two Cities produced or created?</t>
+          <t>Where was War and Peace produced or created?</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>London, England</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
@@ -934,21 +934,21 @@
         <v>0.9857142857142857</v>
       </c>
       <c r="E15" t="n">
-        <v>3.904761904761905</v>
+        <v>3.952380952380953</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Who is the creator of Amélie?</t>
+          <t>Who is the creator of Run Lola Run?</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Jean-Pierre Jeunet</t>
+          <t>Tom Tykwer</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Jean-Pierre Jeunet</t>
+          <t>Tom Tykwer</t>
         </is>
       </c>
     </row>
@@ -960,31 +960,31 @@
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>What year did {event} end?</t>
+          <t>In which country did {event} happen?</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="E16" t="n">
-        <v>2.16</v>
+        <v>1.485714285714286</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>What year did French Revolution end?</t>
+          <t>In which country did French Revolution happen?</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1799</t>
+          <t>France</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1799</t>
+          <t>France</t>
         </is>
       </c>
     </row>
@@ -992,31 +992,31 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>When did {event} take place?</t>
+          <t>What year did {event} end?</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9440000000000001</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="E17" t="n">
-        <v>5.4</v>
+        <v>2.114285714285714</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>When did The Trial of Galileo take place?</t>
+          <t>What year did American Civil War end?</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>1865</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>1865</t>
         </is>
       </c>
     </row>
@@ -1024,31 +1024,31 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Where did {event} happen?</t>
+          <t>When did {event} take place?</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D18" t="n">
-        <v>0.916</v>
+        <v>0.9342857142857144</v>
       </c>
       <c r="E18" t="n">
-        <v>4.52</v>
+        <v>4.914285714285715</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Where did The Establishment of the People's Republic of China happen?</t>
+          <t>When did The Surrender of Japan in WWII take place?</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Tiananmen Square, Beijing</t>
+          <t>September 2, 1945</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Beijing, China</t>
+          <t>September 2, 1945</t>
         </is>
       </c>
     </row>
@@ -1056,99 +1056,99 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Which side is considered to have "won" {event}?</t>
+          <t>Who was the most important leader or figure involved in {event}?</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
-        <v>0.988</v>
+        <v>0.9914285714285715</v>
       </c>
       <c r="E19" t="n">
-        <v>2.96</v>
+        <v>4.371428571428571</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Which side is considered to have "won" The Trial of Galileo?</t>
+          <t>Who was the most important leader or figure involved in French Revolution?</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>The Catholic Church</t>
+          <t>Maximilien Robespierre</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>The Catholic Church</t>
+          <t>Robespierre</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Who was the most important leader or figure involved in {event}?</t>
+          <t>What is the ISO 639‑1 code for {language}?</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Who was the most important leader or figure involved in The Battle of Hastings?</t>
+          <t>What is the ISO 639‑1 code for Kazakh?</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>William the Conqueror</t>
+          <t>kk</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>William the Conqueror</t>
+          <t>kk</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Language</t>
-        </is>
-      </c>
+      <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>What is the ISO 639‑1 code for {language}?</t>
+          <t>What is the name of the alphabet or script of {language}?</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2.619047619047619</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>What is the ISO 639‑1 code for Punjabi?</t>
+          <t>What is the name of the alphabet or script of Greek?</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>pa</t>
+          <t>Greek alphabet</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>pa</t>
+          <t>Greek alphabet</t>
         </is>
       </c>
     </row>
@@ -1156,31 +1156,31 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>What is the name of the alphabet or script of {language}?</t>
+          <t>What is the primary word order in {language}?</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9863636363636363</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>3.318181818181818</v>
+        <v>8.619047619047619</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>What is the name of the alphabet or script of Thai?</t>
+          <t>What is the primary word order in Haitian Creole?</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Thai script</t>
+          <t>SVO (Subject-Verb-Object)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Thai script</t>
+          <t>SVO (Subject-Verb-Object)</t>
         </is>
       </c>
     </row>
@@ -1188,31 +1188,31 @@
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>What language family does {language} belong to?</t>
+          <t>What region is {language} native to?</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9863636363636363</v>
+        <v>0.8619047619047618</v>
       </c>
       <c r="E23" t="n">
-        <v>3.090909090909091</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>What language family does French belong to?</t>
+          <t>What region is Kazakh native to?</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Indo-European</t>
+          <t>Central Asia</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Indo-European</t>
+          <t>Central Asia</t>
         </is>
       </c>
     </row>
@@ -1220,99 +1220,99 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>What region is {language} native to?</t>
+          <t>What writing system is used by {language}?</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8772727272727271</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>3.954545454545455</v>
+        <v>2.761904761904762</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>What region is Sinhala native to?</t>
+          <t>What writing system is used by Haitian Creole?</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Latin alphabet</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Latin alphabet</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n"/>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Organization</t>
+        </is>
+      </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>What writing system is used by {language}?</t>
+          <t>In what year was {organization} established?</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>22</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9590909090909091</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>What writing system is used by French?</t>
+          <t>In what year was Alibaba established?</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Latin alphabet</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Latin alphabet</t>
+          <t>1999</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Organization</t>
-        </is>
-      </c>
+      <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>In what year was {organization} established?</t>
+          <t>What is the primary field or industry of {organization}?</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9891304347826086</v>
+        <v>0.8909090909090908</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>2.772727272727273</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>In what year was Ford established?</t>
+          <t>What is the primary field or industry of Airbnb?</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1903</t>
+          <t>Hospitality</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1903</t>
+          <t>Short-term rentals</t>
         </is>
       </c>
     </row>
@@ -1320,31 +1320,31 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>What is the primary field or industry of {organization}?</t>
+          <t>What primary service or product does {organization} provide?</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9108695652173913</v>
+        <v>0.8681818181818181</v>
       </c>
       <c r="E27" t="n">
-        <v>3.08695652173913</v>
+        <v>3.727272727272727</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>What is the primary field or industry of Amazon?</t>
+          <t>What primary service or product does Red Cross provide?</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>E-commerce</t>
+          <t>Emergency humanitarian aid</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Retail and e-commerce</t>
+          <t>Disaster relief and humanitarian aid</t>
         </is>
       </c>
     </row>
@@ -1352,31 +1352,31 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>What primary service or product does {organization} provide?</t>
+          <t>Where is the headquarters of {organization} located?</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9130434782608695</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>3.673913043478261</v>
+        <v>5.136363636363637</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>What primary service or product does Alibaba provide?</t>
+          <t>Where is the headquarters of Alibaba located?</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Online marketplace</t>
+          <t>Hangzhou, China</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>E-commerce</t>
+          <t>Hangzhou, China</t>
         </is>
       </c>
     </row>
@@ -1384,31 +1384,31 @@
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Where is the headquarters of {organization} located?</t>
+          <t>Where was {organization} established?</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9804347826086959</v>
+        <v>0.959090909090909</v>
       </c>
       <c r="E29" t="n">
-        <v>5.195652173913044</v>
+        <v>4.272727272727272</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Where is the headquarters of Walmart located?</t>
+          <t>Where was Johnson &amp; Johnson established?</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Bentonville, Arkansas, USA</t>
+          <t>New Brunswick, New Jersey, USA</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Bentonville, Arkansas, USA</t>
+          <t>New Brunswick, New Jersey</t>
         </is>
       </c>
     </row>
@@ -1416,31 +1416,31 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Where was {organization} established?</t>
+          <t>Who established {organization}?</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9804347826086957</v>
+        <v>0.8136363636363636</v>
       </c>
       <c r="E30" t="n">
-        <v>4.195652173913044</v>
+        <v>5.363636363636363</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Where was The ACLU established?</t>
+          <t>Who established Coca-Cola?</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>John Stith Pemberton</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>John Pemberton</t>
         </is>
       </c>
     </row>
@@ -1456,27 +1456,27 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9703703703703703</v>
+        <v>0.9769230769230769</v>
       </c>
       <c r="E31" t="n">
-        <v>1.37037037037037</v>
+        <v>1.423076923076923</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>What language was primarily spoken by Che Guevara?</t>
+          <t>What language was primarily spoken by William Shakespeare?</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Spanish</t>
+          <t>Early Modern English</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Spanish</t>
+          <t>English</t>
         </is>
       </c>
     </row>
@@ -1488,27 +1488,27 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9185185185185185</v>
+        <v>0.9653846153846153</v>
       </c>
       <c r="E32" t="n">
-        <v>3.148148148148148</v>
+        <v>3.153846153846154</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>What occupation is Elvis Presley most well-known for?</t>
+          <t>What occupation is Alexander the Great most well-known for?</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Singer</t>
+          <t>Military leader and king</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Singer, songwriter, and actor</t>
+          <t>Conqueror and military leader</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -1530,17 +1530,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>What year did Leonardo da Vinci pass away?</t>
+          <t>What year did Cleopatra VII pass away?</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1519</t>
+          <t>30 BC</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1519</t>
+          <t>30 BC</t>
         </is>
       </c>
     </row>
@@ -1552,27 +1552,27 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>2.111111111111111</v>
+        <v>2.115384615384615</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>What year was Eleanor Roosevelt born?</t>
+          <t>What year was Alexander the Great born?</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1884</t>
+          <t>356 BC</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1884</t>
+          <t>356 BC</t>
         </is>
       </c>
     </row>
@@ -1584,27 +1584,27 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9666666666666666</v>
+        <v>0.9307692307692309</v>
       </c>
       <c r="E35" t="n">
-        <v>5.148148148148148</v>
+        <v>5.076923076923077</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Where did Ada Lovelace die?</t>
+          <t>Where did Vladimir Lenin die?</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>London, England</t>
+          <t>Gorki, Russia</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>London, England</t>
+          <t>Dacha at Gorky Park, Moscow, Russia</t>
         </is>
       </c>
     </row>
@@ -1616,27 +1616,27 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9777777777777777</v>
+        <v>0.9538461538461539</v>
       </c>
       <c r="E36" t="n">
-        <v>4.925925925925926</v>
+        <v>5.153846153846154</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Where was the birthplace of Confucius?</t>
+          <t>Where was the birthplace of Vincent van Gogh?</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Qufu, Shandong, China</t>
+          <t>Zundert, Netherlands</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Qufu, China</t>
+          <t>Groot-Zundert, Netherlands</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6772727272727271</v>
+        <v>0.768</v>
       </c>
       <c r="E37" t="n">
-        <v>9.454545454545455</v>
+        <v>10.32</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>What is the diet of chameleon?</t>
+          <t>What is the diet of wolverine?</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Insects and small invertebrates</t>
+          <t>Carnivorous; eats small animals, birds, carrion, and berries</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Insects, small lizards, and small mammals</t>
+          <t>Carnivorous, eating small mammals, birds, and reptiles</t>
         </is>
       </c>
     </row>
@@ -1680,31 +1680,31 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>What is the primary threat to {species}?</t>
+          <t>What is the social structure of {species}?</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9181818181818181</v>
+        <v>0.772</v>
       </c>
       <c r="E38" t="n">
-        <v>4.772727272727272</v>
+        <v>6.12</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>What is the primary threat to jaguar?</t>
+          <t>What is the social structure of tiger?</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Habitat loss</t>
+          <t>Solitary, territorial</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Habitat loss</t>
+          <t>Solitary or small groups</t>
         </is>
       </c>
     </row>
@@ -1712,31 +1712,31 @@
       <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>What is the social structure of {species}?</t>
+          <t>What type of organism is this {species}?</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8227272727272726</v>
+        <v>0.968</v>
       </c>
       <c r="E39" t="n">
-        <v>5.863636363636363</v>
+        <v>3.08</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>What is the social structure of bald eagle?</t>
+          <t>What type of organism is this panda?</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Solitary or monogamous pairs</t>
+          <t>Mammal</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Solitary except for breeding pairs</t>
+          <t>Mammal</t>
         </is>
       </c>
     </row>
@@ -1744,75 +1744,43 @@
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>What type of organism is this {species}?</t>
+          <t>Where is {species} primarily native to?</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9636363636363636</v>
+        <v>0.848</v>
       </c>
       <c r="E40" t="n">
-        <v>2.818181818181818</v>
+        <v>3.68</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>What type of organism is this lion?</t>
+          <t>Where is red-shouldered hawk primarily native to?</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Mammal</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Mammal</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>Where is {species} primarily native to?</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>22</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.827272727272727</v>
-      </c>
-      <c r="E41" t="n">
-        <v>4.045454545454546</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Where is lion primarily native to?</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Sub-Saharan Africa</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Africa</t>
+          <t>North America</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A31:A36"/>
-    <mergeCell ref="A21:A25"/>
     <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A20:A24"/>
     <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
